--- a/data/n2v/tables/model-1200-1325-20230810-29.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230810-29.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1234" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
